--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/644087ad40513eee/Documents/FML/final project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="11_F25DC773A252ABDACC1048EC299F748E5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{926C5744-2FCB-4F84-B545-D1D75EF40266}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="11_F25DC773A252ABDACC1048EC299F748E5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91BDED27-C7E2-42E6-BFEB-B552DCC1A3CE}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="3720" windowWidth="36645" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28485" yWindow="4650" windowWidth="22920" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2372,6 +2372,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.16880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19259999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6758,8 +6761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AM67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T74" sqref="T74"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8720,6 +8723,9 @@
       <c r="C67" s="20">
         <v>0.56810000000000005</v>
       </c>
+      <c r="D67" s="20">
+        <v>0.19259999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/644087ad40513eee/Documents/FML/final project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="11_F25DC773A252ABDACC1048EC299F748E5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91BDED27-C7E2-42E6-BFEB-B552DCC1A3CE}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="11_F25DC773A252ABDACC1048EC299F748E5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04C2B1BD-E06D-42AE-9B15-45BDE925AB3A}"/>
   <bookViews>
-    <workbookView xWindow="28485" yWindow="4650" windowWidth="22920" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23145" yWindow="3570" windowWidth="22920" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
   <si>
     <t>CNN</t>
   </si>
@@ -100,7 +100,10 @@
     <t>Robust Accuracy (AutoAttack)</t>
   </si>
   <si>
-    <t>CNN(Ensemble)</t>
+    <t>CNN(Ensemble - Stacking)</t>
+  </si>
+  <si>
+    <t>CNN(Ensemble - Average)</t>
   </si>
 </sst>
 </file>
@@ -2257,9 +2260,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$63:$B$67</c:f>
+              <c:f>Sheet1!$B$63:$B$68</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>CNN (Standard)</c:v>
                 </c:pt>
@@ -2273,17 +2276,20 @@
                   <c:v>CNN(LipReg)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>CNN(Ensemble)</c:v>
+                  <c:v>CNN(Ensemble - Average)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CNN(Ensemble - Stacking)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$63:$C$67</c:f>
+              <c:f>Sheet1!$C$63:$C$68</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.62639999999999996</c:v>
                 </c:pt>
@@ -2298,6 +2304,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.56810000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60519999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2334,9 +2343,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$63:$B$67</c:f>
+              <c:f>Sheet1!$B$63:$B$68</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>CNN (Standard)</c:v>
                 </c:pt>
@@ -2350,17 +2359,20 @@
                   <c:v>CNN(LipReg)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>CNN(Ensemble)</c:v>
+                  <c:v>CNN(Ensemble - Average)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CNN(Ensemble - Stacking)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$63:$D$67</c:f>
+              <c:f>Sheet1!$D$63:$D$68</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.6000000000000001E-3</c:v>
                 </c:pt>
@@ -2375,6 +2387,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.19259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0500000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6424,15 +6439,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>340179</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>70758</xdr:rowOff>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>394608</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>146958</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6759,15 +6774,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AM67"/>
+  <dimension ref="A2:AM68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q77" sqref="Q77"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
@@ -8718,13 +8733,24 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C67" s="20">
         <v>0.56810000000000005</v>
       </c>
       <c r="D67" s="20">
         <v>0.19259999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="20">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="D68" s="20">
+        <v>8.0500000000000002E-2</v>
       </c>
     </row>
   </sheetData>
